--- a/excel/测试.xlsx
+++ b/excel/测试.xlsx
@@ -15,7 +15,7 @@
     <sheet name="##" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'##'!$A$6:$W$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'##'!$A$5:$W$8</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -30,7 +30,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="1" shapeId="0">
+    <comment ref="I2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0">
+    <comment ref="J2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="1" shapeId="0">
+    <comment ref="K2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1" shapeId="0">
+    <comment ref="S2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z3" authorId="0" shapeId="0">
+    <comment ref="Z2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB3" authorId="2" shapeId="0">
+    <comment ref="AB2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC3" authorId="3" shapeId="0">
+    <comment ref="AC2" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -251,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="1" shapeId="0">
+    <comment ref="A3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -282,12 +282,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
   <si>
     <t>PropTemplate</t>
-  </si>
-  <si>
-    <t>PK</t>
   </si>
   <si>
     <t>索引</t>
@@ -1163,13 +1160,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -1241,423 +1238,470 @@
       <c r="AA1" s="36"/>
       <c r="AB1" s="37"/>
     </row>
-    <row r="2" spans="1:30">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:30" ht="49.5">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="37"/>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="40" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" ht="49.5">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:30">
+      <c r="A3" s="17">
+        <v>3</v>
+      </c>
+      <c r="B3" s="18">
+        <v>3</v>
+      </c>
+      <c r="C3" s="17">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="F3" s="17">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA3" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB3" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC3" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD3" s="40" t="s">
-        <v>30</v>
+      <c r="H3" s="17">
+        <v>3</v>
+      </c>
+      <c r="I3" s="17">
+        <v>3</v>
+      </c>
+      <c r="J3" s="17">
+        <v>3</v>
+      </c>
+      <c r="K3" s="17">
+        <v>1</v>
+      </c>
+      <c r="L3" s="31">
+        <v>1</v>
+      </c>
+      <c r="M3" s="17">
+        <v>0</v>
+      </c>
+      <c r="N3" s="18">
+        <v>1</v>
+      </c>
+      <c r="O3" s="20">
+        <v>3</v>
+      </c>
+      <c r="P3" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>3</v>
+      </c>
+      <c r="R3" s="20">
+        <v>3</v>
+      </c>
+      <c r="S3" s="20">
+        <v>3</v>
+      </c>
+      <c r="T3" s="20">
+        <v>0</v>
+      </c>
+      <c r="U3" s="20">
+        <v>1</v>
+      </c>
+      <c r="V3" s="20">
+        <v>1</v>
+      </c>
+      <c r="W3" s="20">
+        <v>3</v>
+      </c>
+      <c r="X3" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="18">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="41">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="42">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="40">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18">
-        <v>3</v>
-      </c>
-      <c r="C4" s="17">
-        <v>1</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="18">
-        <v>2</v>
-      </c>
-      <c r="F4" s="17">
-        <v>0</v>
-      </c>
-      <c r="G4" s="17">
-        <v>3</v>
-      </c>
-      <c r="H4" s="17">
-        <v>3</v>
-      </c>
-      <c r="I4" s="17">
-        <v>3</v>
-      </c>
-      <c r="J4" s="17">
-        <v>1</v>
-      </c>
-      <c r="K4" s="17">
-        <v>1</v>
-      </c>
-      <c r="L4" s="31">
-        <v>1</v>
-      </c>
-      <c r="M4" s="17">
-        <v>0</v>
-      </c>
-      <c r="N4" s="18">
-        <v>1</v>
-      </c>
-      <c r="O4" s="20">
-        <v>3</v>
-      </c>
-      <c r="P4" s="20">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="20">
-        <v>3</v>
-      </c>
-      <c r="R4" s="20">
-        <v>3</v>
-      </c>
-      <c r="S4" s="20">
-        <v>3</v>
-      </c>
-      <c r="T4" s="20">
-        <v>0</v>
-      </c>
-      <c r="U4" s="20">
-        <v>1</v>
-      </c>
-      <c r="V4" s="20">
-        <v>1</v>
-      </c>
-      <c r="W4" s="20">
-        <v>3</v>
-      </c>
-      <c r="X4" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="18">
-        <v>3</v>
-      </c>
-      <c r="AA4" s="41">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="42">
-        <v>3</v>
-      </c>
-      <c r="AC4" s="40">
-        <v>2</v>
-      </c>
-      <c r="AD4" s="40">
-        <v>2</v>
+      <c r="B4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA4" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB4" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC4" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD4" s="40" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="20" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>41</v>
+        <v>61</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="R5" s="20" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="S5" s="20" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="T5" s="20" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="U5" s="20" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="V5" s="20" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="W5" s="20" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="X5" s="20" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="Y5" s="20" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Z5" s="18" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AA5" s="38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB5" s="39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AC5" s="40" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AD5" s="40" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q6" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="R6" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="S6" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="T6" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="U6" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="V6" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="W6" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="X6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y6" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z6" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA6" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB6" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" s="40" t="s">
+      <c r="A6" s="22">
+        <v>1</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="AD6" s="40" t="s">
-        <v>68</v>
-      </c>
+      <c r="D6" s="25">
+        <v>90020001</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="24">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24">
+        <v>2</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="24">
+        <v>0</v>
+      </c>
+      <c r="L6" s="25">
+        <v>90120001</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="33">
+        <v>2404</v>
+      </c>
+      <c r="O6" s="24">
+        <v>0</v>
+      </c>
+      <c r="P6" s="24">
+        <v>9999</v>
+      </c>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27">
+        <v>0</v>
+      </c>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27">
+        <v>1</v>
+      </c>
+      <c r="V6" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="W6" s="35">
+        <v>0</v>
+      </c>
+      <c r="X6" s="35">
+        <v>-1</v>
+      </c>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA6" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="23">
         <v>1</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D7" s="25">
-        <v>90020001</v>
+        <v>90020002</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G7" s="24">
         <v>1</v>
@@ -1667,19 +1711,19 @@
         <v>2</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K7" s="24">
         <v>0</v>
       </c>
       <c r="L7" s="25">
-        <v>90120001</v>
+        <v>90120002</v>
       </c>
       <c r="M7" s="26" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="N7" s="33">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="O7" s="24">
         <v>0</v>
@@ -1697,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W7" s="35">
         <v>0</v>
@@ -1707,10 +1751,10 @@
       </c>
       <c r="Y7" s="35"/>
       <c r="Z7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA7" s="43" t="s">
         <v>75</v>
-      </c>
-      <c r="AA7" s="43" t="s">
-        <v>76</v>
       </c>
       <c r="AB7" s="6">
         <v>0</v>
@@ -1720,22 +1764,22 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="23">
         <v>1</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D8" s="25">
-        <v>90020002</v>
+        <v>90020003</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G8" s="24">
         <v>1</v>
@@ -1745,19 +1789,19 @@
         <v>2</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K8" s="24">
         <v>0</v>
       </c>
       <c r="L8" s="25">
-        <v>90120002</v>
+        <v>90120003</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N8" s="33">
-        <v>2403</v>
+        <v>2119</v>
       </c>
       <c r="O8" s="24">
         <v>0</v>
@@ -1775,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="27" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="W8" s="35">
         <v>0</v>
@@ -1785,10 +1829,10 @@
       </c>
       <c r="Y8" s="35"/>
       <c r="Z8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA8" s="43" t="s">
         <v>75</v>
-      </c>
-      <c r="AA8" s="43" t="s">
-        <v>76</v>
       </c>
       <c r="AB8" s="6">
         <v>0</v>
@@ -1796,123 +1840,45 @@
       <c r="AC8" s="44"/>
       <c r="AD8" s="44"/>
     </row>
-    <row r="9" spans="1:30">
-      <c r="A9" s="22">
-        <v>3</v>
-      </c>
-      <c r="B9" s="23">
-        <v>1</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="25">
-        <v>90020003</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="24">
-        <v>1</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24">
-        <v>2</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" s="24">
-        <v>0</v>
-      </c>
-      <c r="L9" s="25">
-        <v>90120003</v>
-      </c>
-      <c r="M9" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="N9" s="33">
-        <v>2119</v>
-      </c>
-      <c r="O9" s="24">
-        <v>0</v>
-      </c>
-      <c r="P9" s="24">
-        <v>9999</v>
-      </c>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27">
-        <v>0</v>
-      </c>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27">
-        <v>1</v>
-      </c>
-      <c r="V9" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="W9" s="35">
-        <v>0</v>
-      </c>
-      <c r="X9" s="35">
-        <v>-1</v>
-      </c>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA9" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A6:W9"/>
+  <autoFilter ref="A5:W8"/>
   <sortState ref="A7:AE386">
     <sortCondition ref="A7"/>
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="M7:M9">
+  <conditionalFormatting sqref="M6:M8">
     <cfRule type="expression" dxfId="6" priority="5065">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B7 N7:Z7 N8:N9 D7:K9 P8:Z9">
+  <conditionalFormatting sqref="A6:B6 N6:Z6 N7:N8 D6:K8 P7:Z8">
     <cfRule type="expression" dxfId="5" priority="5842">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA7:AB7 AA8:AA9">
+  <conditionalFormatting sqref="AA6:AB6 AA7:AA8">
     <cfRule type="expression" dxfId="4" priority="1554">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB8:AB9">
+  <conditionalFormatting sqref="AB7:AB8">
     <cfRule type="expression" dxfId="3" priority="4875">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B9 O8:O9">
+  <conditionalFormatting sqref="A7:B8 O7:O8">
     <cfRule type="expression" dxfId="2" priority="5047">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A9">
+  <conditionalFormatting sqref="A6:A8">
     <cfRule type="duplicateValues" dxfId="1" priority="6944"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D9">
+  <conditionalFormatting sqref="D6:D8">
     <cfRule type="duplicateValues" dxfId="0" priority="6945"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I9">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I8">
       <formula1>1</formula1>
       <formula2>6</formula2>
     </dataValidation>
